--- a/data/trans_orig/Q25_A_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q25_A_R2-Edad-trans_orig.xlsx
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5150</v>
+        <v>5142</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1636781446017043</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4562409928453553</v>
+        <v>0.4555062145690256</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5775</v>
+        <v>5028</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1474122344017956</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4471317135295386</v>
+        <v>0.3893169008732722</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -880,19 +880,19 @@
         <v>3751</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8121</v>
+        <v>8733</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1549985324204652</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03854830938950195</v>
+        <v>0.03897490964204545</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3355475473640101</v>
+        <v>0.3608387731371626</v>
       </c>
     </row>
     <row r="7">
@@ -909,7 +909,7 @@
         <v>9440</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6138</v>
+        <v>6146</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>11288</v>
@@ -918,7 +918,7 @@
         <v>0.8363218553982957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5437590071546446</v>
+        <v>0.5444937854309742</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -930,7 +930,7 @@
         <v>11011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7140</v>
+        <v>7887</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>12915</v>
@@ -939,7 +939,7 @@
         <v>0.8525877655982044</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5528682864704614</v>
+        <v>0.6106830991267275</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -951,19 +951,19 @@
         <v>20452</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16082</v>
+        <v>15470</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23270</v>
+        <v>23260</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8450014675795349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6644524526359898</v>
+        <v>0.6391612268628375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9614516906104981</v>
+        <v>0.9610250903579545</v>
       </c>
     </row>
     <row r="8">
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8122</v>
+        <v>7663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07022090664630552</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2291128323370562</v>
+        <v>0.2161679906688482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1123,19 +1123,19 @@
         <v>3101</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>963</v>
+        <v>976</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7452</v>
+        <v>8457</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04354404344544727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0135262760548566</v>
+        <v>0.01369910458284189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1046358427924187</v>
+        <v>0.1187418150447657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1144,19 +1144,19 @@
         <v>5590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1938</v>
+        <v>1905</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12501</v>
+        <v>12237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05240937943629861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01817120709939033</v>
+        <v>0.01785837867766782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1171985031971466</v>
+        <v>0.1147261731975325</v>
       </c>
     </row>
     <row r="11">
@@ -1173,19 +1173,19 @@
         <v>10414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5042</v>
+        <v>5755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16474</v>
+        <v>17151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2937912680682013</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1422470147636365</v>
+        <v>0.162346794487627</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4647376050775029</v>
+        <v>0.483823505405672</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -1194,19 +1194,19 @@
         <v>27327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18821</v>
+        <v>19643</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35538</v>
+        <v>36435</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3837027898591664</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.264269345728344</v>
+        <v>0.2758157558009883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4989909503435855</v>
+        <v>0.5115839927915246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1215,19 +1215,19 @@
         <v>37741</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28798</v>
+        <v>28352</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48527</v>
+        <v>48594</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3538231205695622</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2699781526769587</v>
+        <v>0.2657958991435498</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4549360869121231</v>
+        <v>0.4555714361222186</v>
       </c>
     </row>
     <row r="12">
@@ -1244,19 +1244,19 @@
         <v>22544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15976</v>
+        <v>16587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>27923</v>
+        <v>28153</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6359878252854932</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4506786956660115</v>
+        <v>0.4679247404826125</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7877148380875338</v>
+        <v>0.7941971167416472</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -1265,19 +1265,19 @@
         <v>40791</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32044</v>
+        <v>31904</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49485</v>
+        <v>48870</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5727531666953862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4499344331288067</v>
+        <v>0.447967658944951</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6948321285984451</v>
+        <v>0.686193831064589</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -1286,19 +1286,19 @@
         <v>63335</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51724</v>
+        <v>52933</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73631</v>
+        <v>72889</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5937674999941392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4849093295906786</v>
+        <v>0.4962412374035728</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6902839515994543</v>
+        <v>0.6833364111138487</v>
       </c>
     </row>
     <row r="13">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5250</v>
+        <v>4705</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01420918797442664</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07902781864947725</v>
+        <v>0.07081610182473054</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4758</v>
+        <v>4788</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00626535062228515</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0315815942526239</v>
+        <v>0.03178174715612174</v>
       </c>
     </row>
     <row r="15">
@@ -1453,19 +1453,19 @@
         <v>12931</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7756</v>
+        <v>7467</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21906</v>
+        <v>21282</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.153512273874867</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09208220956630815</v>
+        <v>0.08864606805902499</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2600681849544494</v>
+        <v>0.2526600993974</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -1474,19 +1474,19 @@
         <v>14619</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8438</v>
+        <v>8314</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21765</v>
+        <v>21457</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2200492496308604</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1270123917954395</v>
+        <v>0.1251432231893105</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3276169086502747</v>
+        <v>0.3229761868292927</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>27</v>
@@ -1495,19 +1495,19 @@
         <v>27549</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>18534</v>
+        <v>19283</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>37945</v>
+        <v>38242</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1828508598101134</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1230117888211801</v>
+        <v>0.1279840237614378</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2518486073392263</v>
+        <v>0.2538227697473362</v>
       </c>
     </row>
     <row r="16">
@@ -1524,19 +1524,19 @@
         <v>34610</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25764</v>
+        <v>25179</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43397</v>
+        <v>43078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4108909956186331</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.305865897897964</v>
+        <v>0.2989190709748971</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.515203094293628</v>
+        <v>0.5114217279541889</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1545,19 +1545,19 @@
         <v>35369</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27124</v>
+        <v>27037</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43182</v>
+        <v>43447</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5323921012937668</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4082815717905849</v>
+        <v>0.4069761001600555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6499958072235441</v>
+        <v>0.6539933900444093</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -1566,19 +1566,19 @@
         <v>69979</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57966</v>
+        <v>57756</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>81720</v>
+        <v>82787</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4644652765289924</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3847317702634246</v>
+        <v>0.3833351298979138</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5423892934736027</v>
+        <v>0.549472456274127</v>
       </c>
     </row>
     <row r="17">
@@ -1595,19 +1595,19 @@
         <v>36691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28224</v>
+        <v>28362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46208</v>
+        <v>46647</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4355967305064998</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3350783304918437</v>
+        <v>0.3367129079848499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.548579144444666</v>
+        <v>0.5537862390774311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -1616,19 +1616,19 @@
         <v>15502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9508</v>
+        <v>9741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23069</v>
+        <v>23583</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2333494611009462</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1431179169694466</v>
+        <v>0.1466314593013547</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3472485795108998</v>
+        <v>0.3549870763799707</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1637,19 +1637,19 @@
         <v>52193</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>40642</v>
+        <v>41343</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64799</v>
+        <v>65083</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.346418513038609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2697477183560989</v>
+        <v>0.2743994168277908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4300807494029643</v>
+        <v>0.4319704790700468</v>
       </c>
     </row>
     <row r="18">
@@ -1741,19 +1741,19 @@
         <v>4214</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10625</v>
+        <v>9768</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03356462683341711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008902165101385674</v>
+        <v>0.008898122288320506</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08462778768388794</v>
+        <v>0.07780307515902399</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -1762,19 +1762,19 @@
         <v>5149</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1927</v>
+        <v>1955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11041</v>
+        <v>10616</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08297288583445755</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03105250417670194</v>
+        <v>0.03150852898221567</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.177924712567555</v>
+        <v>0.1710902406747039</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1783,19 +1783,19 @@
         <v>9363</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4399</v>
+        <v>4234</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16780</v>
+        <v>16716</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04990708686811734</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02344731771674182</v>
+        <v>0.02257000964279922</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08944282320603093</v>
+        <v>0.08910154470188288</v>
       </c>
     </row>
     <row r="20">
@@ -1812,19 +1812,19 @@
         <v>25508</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16988</v>
+        <v>17244</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36223</v>
+        <v>35882</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2031674033428684</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1353104946043736</v>
+        <v>0.137351187210154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2885129239964632</v>
+        <v>0.2857971272860105</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1833,19 +1833,19 @@
         <v>8028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4002</v>
+        <v>3958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15339</v>
+        <v>15075</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1293703968253263</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06448681137951781</v>
+        <v>0.06379077510207265</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2472007830238582</v>
+        <v>0.2429491957198051</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -1854,19 +1854,19 @@
         <v>33535</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23965</v>
+        <v>23426</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>45804</v>
+        <v>44836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1787580302121931</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1277447831184855</v>
+        <v>0.124872737786384</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2441570459432039</v>
+        <v>0.2389929132649467</v>
       </c>
     </row>
     <row r="21">
@@ -1883,19 +1883,19 @@
         <v>56458</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>45304</v>
+        <v>46299</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>68506</v>
+        <v>67823</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4496891968222124</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3608446603441007</v>
+        <v>0.3687655361075018</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5456441679501761</v>
+        <v>0.5402069573749413</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>28</v>
@@ -1904,19 +1904,19 @@
         <v>29053</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21819</v>
+        <v>21270</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36949</v>
+        <v>36612</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4682023291177713</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3516259399096499</v>
+        <v>0.3427704284704215</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5954515028669783</v>
+        <v>0.5900167956880802</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -1925,19 +1925,19 @@
         <v>85511</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73425</v>
+        <v>72344</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>99935</v>
+        <v>99912</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4558126695122928</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3913880238237718</v>
+        <v>0.3856269581219864</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5326965451694469</v>
+        <v>0.5325758338150796</v>
       </c>
     </row>
     <row r="22">
@@ -1954,19 +1954,19 @@
         <v>39370</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29916</v>
+        <v>29126</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51021</v>
+        <v>50838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3135787730015021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2382811552563033</v>
+        <v>0.2319835451782847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4063825963470221</v>
+        <v>0.404920725356371</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -1975,19 +1975,19 @@
         <v>19823</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12845</v>
+        <v>13371</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27957</v>
+        <v>27671</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3194543882224449</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2070018620578071</v>
+        <v>0.2154738380433936</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4505392767194464</v>
+        <v>0.4459338613634085</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -1996,19 +1996,19 @@
         <v>59193</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>45975</v>
+        <v>48006</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72305</v>
+        <v>73733</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3155222134073969</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2450643671221569</v>
+        <v>0.2558931226850036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3854162088514345</v>
+        <v>0.3930302411953861</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>16517</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10000</v>
+        <v>9795</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>26334</v>
+        <v>24848</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1281102789017538</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07756020976914889</v>
+        <v>0.07597657766697898</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2042558691779053</v>
+        <v>0.1927267791830273</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4616</v>
+        <v>4544</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07030950317435095</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2833389748661376</v>
+        <v>0.278917768542872</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -2142,19 +2142,19 @@
         <v>17663</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10815</v>
+        <v>10776</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>26477</v>
+        <v>26943</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1216251549145897</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07447081832372274</v>
+        <v>0.0742013552590072</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1823244214034406</v>
+        <v>0.1855309639707303</v>
       </c>
     </row>
     <row r="25">
@@ -2171,19 +2171,19 @@
         <v>37683</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28077</v>
+        <v>28388</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49589</v>
+        <v>48893</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2922833088044817</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2177715843383054</v>
+        <v>0.2201857021438993</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.384629412219464</v>
+        <v>0.3792334075896374</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2192,19 +2192,19 @@
         <v>7042</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3005</v>
+        <v>3109</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11111</v>
+        <v>11172</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4321847248366097</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1844056172159297</v>
+        <v>0.1908108701037405</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.681922963283618</v>
+        <v>0.6856726129871873</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>42</v>
@@ -2213,19 +2213,19 @@
         <v>44725</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34198</v>
+        <v>34559</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>55854</v>
+        <v>57244</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3079799498535056</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2354873630257343</v>
+        <v>0.2379731292248444</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3846148783509619</v>
+        <v>0.3941873457040477</v>
       </c>
     </row>
     <row r="26">
@@ -2242,19 +2242,19 @@
         <v>55842</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44392</v>
+        <v>46145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>67072</v>
+        <v>66738</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4331282082866869</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3443166048438603</v>
+        <v>0.3579159940920256</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5202324968849074</v>
+        <v>0.5176456026217487</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2263,19 +2263,19 @@
         <v>3934</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>961</v>
+        <v>984</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7957</v>
+        <v>8053</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2414783013755029</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05899851005518601</v>
+        <v>0.06037926864521571</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4883922315812188</v>
+        <v>0.4942554906801752</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>63</v>
@@ -2284,19 +2284,19 @@
         <v>59777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>48471</v>
+        <v>49323</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>71719</v>
+        <v>71330</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4116254967260485</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3337751852431987</v>
+        <v>0.3396429554799525</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4938626943228849</v>
+        <v>0.4911799364077092</v>
       </c>
     </row>
     <row r="27">
@@ -2313,19 +2313,19 @@
         <v>18885</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12083</v>
+        <v>11625</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>28042</v>
+        <v>27641</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1464782040070776</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09372332064086118</v>
+        <v>0.09016864081798742</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2175047952686862</v>
+        <v>0.2143948649357496</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2334,19 +2334,19 @@
         <v>4171</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1299</v>
+        <v>1013</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9046</v>
+        <v>8330</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2560274706135364</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07969783783110097</v>
+        <v>0.06215904249777458</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.555198122822197</v>
+        <v>0.5112356580018369</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -2355,19 +2355,19 @@
         <v>23057</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>15004</v>
+        <v>15177</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33224</v>
+        <v>32713</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1587693985058561</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1033189497065704</v>
+        <v>0.1045104549468737</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2287821345339822</v>
+        <v>0.2252660601053707</v>
       </c>
     </row>
     <row r="28">
@@ -2459,19 +2459,19 @@
         <v>19730</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12559</v>
+        <v>13125</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28932</v>
+        <v>28418</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1646085091552666</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1047794320515104</v>
+        <v>0.1094979416884749</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2413759459163795</v>
+        <v>0.2370920130611668</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2493,19 +2493,19 @@
         <v>19730</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>12014</v>
+        <v>12909</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28101</v>
+        <v>28880</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1501906592901825</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09144972008152655</v>
+        <v>0.09826876303555385</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2139123485245297</v>
+        <v>0.2198404305531321</v>
       </c>
     </row>
     <row r="30">
@@ -2522,19 +2522,19 @@
         <v>40378</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>31215</v>
+        <v>30283</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52465</v>
+        <v>51461</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.336870215982864</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2604211993175292</v>
+        <v>0.2526475799845062</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4377146510839834</v>
+        <v>0.429332008905684</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -2543,19 +2543,19 @@
         <v>3107</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>897</v>
+        <v>954</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6586</v>
+        <v>7113</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2700695802350764</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.07792030769665674</v>
+        <v>0.08291488247893991</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5724241785670187</v>
+        <v>0.6182035359284263</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>45</v>
@@ -2564,19 +2564,19 @@
         <v>43486</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>33583</v>
+        <v>33635</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55327</v>
+        <v>55367</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3310192332964507</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.255640414097065</v>
+        <v>0.2560359849254526</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4211545491755917</v>
+        <v>0.4214580198336363</v>
       </c>
     </row>
     <row r="31">
@@ -2593,19 +2593,19 @@
         <v>43881</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>34560</v>
+        <v>34319</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54755</v>
+        <v>55523</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3660996715754214</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2883300387709782</v>
+        <v>0.2863211166514223</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.456816991592528</v>
+        <v>0.4632277583127575</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2614,19 +2614,19 @@
         <v>5607</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2687</v>
+        <v>2635</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9503</v>
+        <v>8813</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4872749269032056</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2334878351359106</v>
+        <v>0.228986201114798</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.8259108979075943</v>
+        <v>0.7659454873334505</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>53</v>
@@ -2635,19 +2635,19 @@
         <v>49488</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>39383</v>
+        <v>39296</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>60609</v>
+        <v>60856</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.376713258003273</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2997891154740237</v>
+        <v>0.2991260533543009</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4613638184671988</v>
+        <v>0.4632459600841463</v>
       </c>
     </row>
     <row r="32">
@@ -2664,19 +2664,19 @@
         <v>15872</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9657</v>
+        <v>9626</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>24746</v>
+        <v>24723</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.132421603286448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08057093756258045</v>
+        <v>0.08030757177774756</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2064500851166013</v>
+        <v>0.2062603796560472</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3</v>
@@ -2685,19 +2685,19 @@
         <v>2792</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6182</v>
+        <v>6571</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.242655492861718</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06309988676252373</v>
+        <v>0.06586242067742701</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5372865173089372</v>
+        <v>0.5711219877578028</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>19</v>
@@ -2706,19 +2706,19 @@
         <v>18664</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>11558</v>
+        <v>11512</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>27572</v>
+        <v>27402</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1420768494100938</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08798133770816874</v>
+        <v>0.08762737753498519</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2098857410259149</v>
+        <v>0.2085857347224284</v>
       </c>
     </row>
     <row r="33">
@@ -2810,19 +2810,19 @@
         <v>25668</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17537</v>
+        <v>17809</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35414</v>
+        <v>34582</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2384683871003883</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1629239231452668</v>
+        <v>0.16545795660052</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3290138092187384</v>
+        <v>0.3212882024619649</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5264</v>
+        <v>5335</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1448950592678371</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6535320479947911</v>
+        <v>0.662332750869811</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>26</v>
@@ -2852,19 +2852,19 @@
         <v>26835</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18285</v>
+        <v>17962</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37044</v>
+        <v>36003</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2319531308845899</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1580480376695527</v>
+        <v>0.1552578985575406</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3201978483220378</v>
+        <v>0.3111928858812034</v>
       </c>
     </row>
     <row r="35">
@@ -2881,19 +2881,19 @@
         <v>53932</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>64371</v>
+        <v>63566</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.5010499412577771</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4113661035256264</v>
+        <v>0.4116403586755136</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5980410822770915</v>
+        <v>0.5905567588592791</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2902,19 +2902,19 @@
         <v>4163</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1163</v>
+        <v>1186</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7029</v>
+        <v>6933</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.5168814925728507</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1444334157960862</v>
+        <v>0.1472965132875207</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8726201021302242</v>
+        <v>0.8606853102722291</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>60</v>
@@ -2923,19 +2923,19 @@
         <v>58095</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>48030</v>
+        <v>47512</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>69379</v>
+        <v>68563</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.5021522491001983</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4151529514331236</v>
+        <v>0.4106769606083416</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5996871308059554</v>
+        <v>0.592631440697694</v>
       </c>
     </row>
     <row r="36">
@@ -2952,19 +2952,19 @@
         <v>25239</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17337</v>
+        <v>17357</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35172</v>
+        <v>34096</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2344842470448608</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1610707746973148</v>
+        <v>0.1612540674912179</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3267603509063128</v>
+        <v>0.3167663885513576</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>6858</v>
+        <v>6272</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3382234481593123</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8513461056740466</v>
+        <v>0.7786305171830519</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>28</v>
@@ -2994,19 +2994,19 @@
         <v>27964</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>19602</v>
+        <v>19077</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>38183</v>
+        <v>38129</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2417073253572233</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.16942929462046</v>
+        <v>0.164893754903222</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3300376598407076</v>
+        <v>0.3295717166248793</v>
       </c>
     </row>
     <row r="37">
@@ -3023,19 +3023,19 @@
         <v>2798</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7308</v>
+        <v>7657</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02599742459697379</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.007481491330231826</v>
+        <v>0.007666707691421782</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.06789866719214364</v>
+        <v>0.07113327762102431</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3057,19 +3057,19 @@
         <v>2798</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7804</v>
+        <v>7561</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02418729465798852</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.007163286720124057</v>
+        <v>0.006999444294700792</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06745449410472269</v>
+        <v>0.06535535703411206</v>
       </c>
     </row>
     <row r="38">
@@ -3161,19 +3161,19 @@
         <v>66129</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>53447</v>
+        <v>51599</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>83336</v>
+        <v>83769</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1078878753268473</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.08719714846621861</v>
+        <v>0.08418183603831657</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1359595377953216</v>
+        <v>0.1366664497562358</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>8</v>
@@ -3182,19 +3182,19 @@
         <v>8405</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>4034</v>
+        <v>3954</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>16489</v>
+        <v>16771</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03382779566640107</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01623674827193102</v>
+        <v>0.01591417573145694</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06636277779096979</v>
+        <v>0.06749672876554436</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>73</v>
@@ -3203,19 +3203,19 @@
         <v>74535</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>58814</v>
+        <v>59707</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>92903</v>
+        <v>92992</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.08652534532120952</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.06827603360279984</v>
+        <v>0.06931266080273349</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1078485529302137</v>
+        <v>0.1079516460386144</v>
       </c>
     </row>
     <row r="40">
@@ -3232,19 +3232,19 @@
         <v>172920</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>150453</v>
+        <v>152155</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>194692</v>
+        <v>196145</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.282114044494491</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2454598591080295</v>
+        <v>0.2482368001806781</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3176341417474176</v>
+        <v>0.3200050907737909</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>38</v>
@@ -3253,19 +3253,19 @@
         <v>40061</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>28872</v>
+        <v>29276</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>51356</v>
+        <v>51769</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1612256246048615</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1161963496199708</v>
+        <v>0.1178238716805018</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2066847717070669</v>
+        <v>0.2083453993645143</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>210</v>
@@ -3274,19 +3274,19 @@
         <v>212981</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>188804</v>
+        <v>187436</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>237538</v>
+        <v>236461</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2472439429625102</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.219177511889787</v>
+        <v>0.217589816164109</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2757523515975455</v>
+        <v>0.2745011634085101</v>
       </c>
     </row>
     <row r="41">
@@ -3303,19 +3303,19 @@
         <v>228293</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>205894</v>
+        <v>206227</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>252941</v>
+        <v>252081</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3724534508404155</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3359101442112331</v>
+        <v>0.3364529348842248</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4126663120872825</v>
+        <v>0.4112620074654341</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>101</v>
@@ -3324,19 +3324,19 @@
         <v>105918</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>90168</v>
+        <v>90392</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>121768</v>
+        <v>121043</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4262734608144993</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.362886952229825</v>
+        <v>0.3637859037539991</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4900596359361657</v>
+        <v>0.487141880924256</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>333</v>
@@ -3345,19 +3345,19 @@
         <v>334211</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>305203</v>
+        <v>307280</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>362517</v>
+        <v>362061</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3879777600667413</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3543021675627721</v>
+        <v>0.3567137842092363</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4208370685928686</v>
+        <v>0.4203076743454597</v>
       </c>
     </row>
     <row r="42">
@@ -3374,19 +3374,19 @@
         <v>145602</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2375446293382462</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>94</v>
@@ -3395,19 +3395,19 @@
         <v>94091</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3786731189142381</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>235</v>
@@ -3416,19 +3416,19 @@
         <v>239692</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.278252951649539</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
     </row>
     <row r="43">
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5005</v>
+        <v>4172</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05866618014093506</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2981827433957279</v>
+        <v>0.2485448744787346</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -3878,19 +3878,19 @@
         <v>3718</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7865</v>
+        <v>7862</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1933391086902324</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04755522418829496</v>
+        <v>0.04657678843078351</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.409013481641012</v>
+        <v>0.4088846090999023</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3902,16 +3902,16 @@
         <v>1754</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9695</v>
+        <v>9659</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1305730796840081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04870501782759291</v>
+        <v>0.04869098315799338</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2691880473908766</v>
+        <v>0.2682033168021031</v>
       </c>
     </row>
     <row r="7">
@@ -3928,7 +3928,7 @@
         <v>15800</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11780</v>
+        <v>12613</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>16785</v>
@@ -3937,7 +3937,7 @@
         <v>0.9413338198590649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.701817256604274</v>
+        <v>0.7514551255212651</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>1</v>
@@ -3949,19 +3949,19 @@
         <v>15511</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11364</v>
+        <v>11367</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18315</v>
+        <v>18333</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8066608913097676</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5909865183589876</v>
+        <v>0.5911153909000978</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9524447758117051</v>
+        <v>0.9534232115692165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -3970,7 +3970,7 @@
         <v>31312</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>26319</v>
+        <v>26355</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>34260</v>
@@ -3979,10 +3979,10 @@
         <v>0.8694269203159919</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7308119526091238</v>
+        <v>0.731796683197897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9512949821724072</v>
+        <v>0.9513090168420066</v>
       </c>
     </row>
     <row r="8">
@@ -4090,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4489</v>
+        <v>5854</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01261960450732248</v>
@@ -4099,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.05322215675483724</v>
+        <v>0.06940467836729615</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7356</v>
+        <v>5930</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006735027084998886</v>
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04654588805136724</v>
+        <v>0.03752415067716371</v>
       </c>
     </row>
     <row r="10">
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7087</v>
+        <v>7051</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02827803984734195</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09617275224819</v>
+        <v>0.09567667119857837</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6363</v>
+        <v>7450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01318617510847347</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04026294383627375</v>
+        <v>0.0471381992766843</v>
       </c>
     </row>
     <row r="11">
@@ -4200,19 +4200,19 @@
         <v>18230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11278</v>
+        <v>11829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26510</v>
+        <v>27048</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2473719840123884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1530414224831919</v>
+        <v>0.160522348873964</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3597319942399072</v>
+        <v>0.3670415919794258</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -4221,19 +4221,19 @@
         <v>31476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22238</v>
+        <v>22180</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40398</v>
+        <v>40868</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3731836330291685</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2636574611844645</v>
+        <v>0.2629732227772434</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4789712704615601</v>
+        <v>0.4845374743843466</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>48</v>
@@ -4242,19 +4242,19 @@
         <v>49705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>37661</v>
+        <v>38516</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>62168</v>
+        <v>61660</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.314517104387969</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2383024201581338</v>
+        <v>0.2437142184786971</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3933780037234725</v>
+        <v>0.3901599031810805</v>
       </c>
     </row>
     <row r="12">
@@ -4271,19 +4271,19 @@
         <v>53380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>44482</v>
+        <v>44388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>60645</v>
+        <v>60166</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7243499761402696</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.603608783343397</v>
+        <v>0.6023388837677713</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8229427167809935</v>
+        <v>0.8164345566037404</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -4292,19 +4292,19 @@
         <v>51804</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42467</v>
+        <v>42210</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60788</v>
+        <v>61097</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6141967624635091</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5034986567863174</v>
+        <v>0.5004534788877429</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7207096278449762</v>
+        <v>0.7243835411795504</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>99</v>
@@ -4313,19 +4313,19 @@
         <v>105183</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>92595</v>
+        <v>92620</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>117240</v>
+        <v>116445</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6655616934185586</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5859083364156689</v>
+        <v>0.5860637440341364</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7418496313946357</v>
+        <v>0.7368209480289117</v>
       </c>
     </row>
     <row r="13">
@@ -4417,19 +4417,19 @@
         <v>3771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12099</v>
+        <v>11651</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0344688118400855</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008218471434935773</v>
+        <v>0.007992937149711962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1105905064067238</v>
+        <v>0.1064957677614901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -4438,19 +4438,19 @@
         <v>2902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8067</v>
+        <v>8037</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02301317358941286</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007369787630874329</v>
+        <v>0.007252384616976091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0639783710696871</v>
+        <v>0.06374251820314261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6</v>
@@ -4459,19 +4459,19 @@
         <v>6673</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2807</v>
+        <v>2722</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15173</v>
+        <v>14701</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02833511460039683</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01191867270324617</v>
+        <v>0.01155929934129999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06443123753032519</v>
+        <v>0.06242475826103568</v>
       </c>
     </row>
     <row r="15">
@@ -4488,19 +4488,19 @@
         <v>10037</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5145</v>
+        <v>5093</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17378</v>
+        <v>16990</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09174763473285058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04702889171715931</v>
+        <v>0.04654949136564334</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1588428049471075</v>
+        <v>0.1553008546237986</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -4509,19 +4509,19 @@
         <v>30980</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>21174</v>
+        <v>22016</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42436</v>
+        <v>41611</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2456985618287371</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1679288513759385</v>
+        <v>0.1746067711573132</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3365593891056884</v>
+        <v>0.3300163663588321</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>38</v>
@@ -4530,19 +4530,19 @@
         <v>41017</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>30241</v>
+        <v>29937</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>53861</v>
+        <v>55733</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1741776448215599</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1284167221186143</v>
+        <v>0.127125583821494</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2287174774251356</v>
+        <v>0.2366657825731618</v>
       </c>
     </row>
     <row r="16">
@@ -4559,19 +4559,19 @@
         <v>47633</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37750</v>
+        <v>37111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58668</v>
+        <v>59214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4353987198368074</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3450556200570959</v>
+        <v>0.3392182333573252</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5362584265355783</v>
+        <v>0.5412528543170888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -4580,19 +4580,19 @@
         <v>57374</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45535</v>
+        <v>46154</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70926</v>
+        <v>68322</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4550301122339837</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3611350113719461</v>
+        <v>0.3660404228777558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5625071567909639</v>
+        <v>0.5418533440427283</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -4601,19 +4601,19 @@
         <v>105008</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90343</v>
+        <v>90689</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120994</v>
+        <v>120669</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4459099645813536</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3836348608568025</v>
+        <v>0.3851029780602638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5137925483481193</v>
+        <v>0.5124108750211104</v>
       </c>
     </row>
     <row r="17">
@@ -4630,19 +4630,19 @@
         <v>47960</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38199</v>
+        <v>37729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59091</v>
+        <v>58168</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4383848335902564</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3491579223283284</v>
+        <v>0.3448666931574704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5401275379869156</v>
+        <v>0.5316870732467148</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -4651,19 +4651,19 @@
         <v>34833</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26103</v>
+        <v>25502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46142</v>
+        <v>46371</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2762581523478664</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2070215622975036</v>
+        <v>0.2022558456108502</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3659499445451999</v>
+        <v>0.3677653318368852</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -4672,19 +4672,19 @@
         <v>82794</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>69228</v>
+        <v>68725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>98190</v>
+        <v>97586</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3515772759966897</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2939726712354769</v>
+        <v>0.2918371057010621</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4169548797284428</v>
+        <v>0.4143903891413713</v>
       </c>
     </row>
     <row r="18">
@@ -4776,19 +4776,19 @@
         <v>14706</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7651</v>
+        <v>8329</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24358</v>
+        <v>24207</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08601088042536803</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04475087027801346</v>
+        <v>0.04871595197705472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1424608928720139</v>
+        <v>0.1415821241578389</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -4797,19 +4797,19 @@
         <v>11635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6289</v>
+        <v>6204</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19165</v>
+        <v>19643</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1255595886864099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06787023746836032</v>
+        <v>0.0669541277329978</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2068227113777101</v>
+        <v>0.2119756229594142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -4818,19 +4818,19 @@
         <v>26341</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16967</v>
+        <v>17567</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37648</v>
+        <v>38004</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09991135468810261</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0643568364617529</v>
+        <v>0.06663068988451616</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1427977176656927</v>
+        <v>0.1441496999066072</v>
       </c>
     </row>
     <row r="20">
@@ -4847,19 +4847,19 @@
         <v>46935</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34574</v>
+        <v>34813</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>59812</v>
+        <v>59197</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2745112975223196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.202212867915505</v>
+        <v>0.2036081845692572</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3498251886908509</v>
+        <v>0.346224736949158</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -4868,19 +4868,19 @@
         <v>25222</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16374</v>
+        <v>16712</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35223</v>
+        <v>35880</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2721804716851974</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1766964275065278</v>
+        <v>0.1803463905395938</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3801146331128852</v>
+        <v>0.3871974295001354</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>63</v>
@@ -4889,19 +4889,19 @@
         <v>72157</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56208</v>
+        <v>56821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87252</v>
+        <v>88335</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2736920650875715</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2131959072299956</v>
+        <v>0.2155211419099253</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3309493353549627</v>
+        <v>0.3350551713901562</v>
       </c>
     </row>
     <row r="21">
@@ -4918,19 +4918,19 @@
         <v>58847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47299</v>
+        <v>46946</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>74041</v>
+        <v>72656</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.344181029137046</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2766351495513412</v>
+        <v>0.27457565824921</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4330413678790404</v>
+        <v>0.4249433390730495</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -4939,19 +4939,19 @@
         <v>32943</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24080</v>
+        <v>23009</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>45798</v>
+        <v>44275</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3555066508401458</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2598599169651362</v>
+        <v>0.2482998717935962</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4942360667651281</v>
+        <v>0.4777981822104665</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>81</v>
@@ -4960,19 +4960,19 @@
         <v>91790</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>74487</v>
+        <v>75996</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>108853</v>
+        <v>108950</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.34816172837896</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2825306201303123</v>
+        <v>0.2882539113380701</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4128811724763202</v>
+        <v>0.4132499020528515</v>
       </c>
     </row>
     <row r="22">
@@ -4989,19 +4989,19 @@
         <v>50489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38859</v>
+        <v>38672</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62571</v>
+        <v>63577</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2952967929152663</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2272729360866646</v>
+        <v>0.2261807003745419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3659600641616295</v>
+        <v>0.3718418766592103</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -5010,19 +5010,19 @@
         <v>22865</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14714</v>
+        <v>14730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32181</v>
+        <v>31670</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2467532887882469</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1587820955897941</v>
+        <v>0.1589587208443293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3472819289564053</v>
+        <v>0.3417656255019219</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>66</v>
@@ -5031,19 +5031,19 @@
         <v>73355</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>58239</v>
+        <v>57188</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90240</v>
+        <v>89466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2782348518453658</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2208995119054263</v>
+        <v>0.2169134733868957</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3422826357009284</v>
+        <v>0.3393457649327064</v>
       </c>
     </row>
     <row r="23">
@@ -5135,19 +5135,19 @@
         <v>24639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15885</v>
+        <v>14886</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>33626</v>
+        <v>34596</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1679490082980546</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1082784311834923</v>
+        <v>0.1014677127687222</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2292050329529743</v>
+        <v>0.2358160981066451</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -5156,19 +5156,19 @@
         <v>4064</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1059</v>
+        <v>1068</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11671</v>
+        <v>10441</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07852049519475782</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02046534887972042</v>
+        <v>0.02062948744003254</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2254823489859476</v>
+        <v>0.2017146566019364</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -5177,19 +5177,19 @@
         <v>28703</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>18597</v>
+        <v>19799</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>38932</v>
+        <v>41334</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1446262641298376</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09370282952474257</v>
+        <v>0.09976188634327371</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1961670754742408</v>
+        <v>0.2082693678526584</v>
       </c>
     </row>
     <row r="25">
@@ -5206,19 +5206,19 @@
         <v>42766</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32817</v>
+        <v>32164</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56940</v>
+        <v>55028</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2915076755547373</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2236876845477558</v>
+        <v>0.2192373231483054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3881199593320727</v>
+        <v>0.3750846594488834</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>10</v>
@@ -5227,19 +5227,19 @@
         <v>12288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6577</v>
+        <v>6756</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20390</v>
+        <v>19542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2374104631843924</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1270606586318307</v>
+        <v>0.130522407779425</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3939329438674996</v>
+        <v>0.3775508902505231</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>49</v>
@@ -5248,19 +5248,19 @@
         <v>55054</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42345</v>
+        <v>42693</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69589</v>
+        <v>68339</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2773992508415823</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2133624834920089</v>
+        <v>0.2151127979591497</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3506366841662814</v>
+        <v>0.3443337152312537</v>
       </c>
     </row>
     <row r="26">
@@ -5277,19 +5277,19 @@
         <v>49902</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38346</v>
+        <v>38372</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61650</v>
+        <v>62581</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.340148728932859</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2613758413214445</v>
+        <v>0.261557969168225</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4202274470431729</v>
+        <v>0.4265697997021161</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -5298,19 +5298,19 @@
         <v>23684</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16279</v>
+        <v>17216</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31413</v>
+        <v>31630</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4575734936035217</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3145029072106469</v>
+        <v>0.3326196292795509</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6068988265176047</v>
+        <v>0.6110909654079822</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -5319,19 +5319,19 @@
         <v>73586</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>60055</v>
+        <v>59385</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>88534</v>
+        <v>86396</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3707728291263128</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3025959334526405</v>
+        <v>0.29922245133564</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4460918640769843</v>
+        <v>0.4353173494632612</v>
       </c>
     </row>
     <row r="27">
@@ -5348,19 +5348,19 @@
         <v>29399</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20612</v>
+        <v>20364</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40834</v>
+        <v>40462</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.200394587214349</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1404980948610881</v>
+        <v>0.1388046178789744</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2783339344462618</v>
+        <v>0.275804526955807</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -5369,19 +5369,19 @@
         <v>11723</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6384</v>
+        <v>6246</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>18645</v>
+        <v>19060</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2264955480173281</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1233444791373497</v>
+        <v>0.1206717829742671</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3602126619908059</v>
+        <v>0.3682430083645332</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -5390,19 +5390,19 @@
         <v>41122</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29600</v>
+        <v>30906</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>54293</v>
+        <v>53585</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2072016559022673</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1491424850226868</v>
+        <v>0.1557239960242119</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2735652320509005</v>
+        <v>0.2699968013975994</v>
       </c>
     </row>
     <row r="28">
@@ -5494,19 +5494,19 @@
         <v>41208</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29314</v>
+        <v>29631</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>54401</v>
+        <v>55508</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2441426380422745</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1736762998859536</v>
+        <v>0.1755563732446838</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3223054881094825</v>
+        <v>0.3288658447411371</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4068</v>
+        <v>4707</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08493249997714604</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3829436638676191</v>
+        <v>0.4431025382791606</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -5536,19 +5536,19 @@
         <v>42110</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>30135</v>
+        <v>31870</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>55610</v>
+        <v>57312</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2347159957850728</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1679685927116169</v>
+        <v>0.1776417732512901</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3099646483953354</v>
+        <v>0.3194525815787242</v>
       </c>
     </row>
     <row r="30">
@@ -5565,19 +5565,19 @@
         <v>56953</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44529</v>
+        <v>46285</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71491</v>
+        <v>70713</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3374252506157019</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2638190904163524</v>
+        <v>0.2742221581716454</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4235597825661211</v>
+        <v>0.418951730900119</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -5586,19 +5586,19 @@
         <v>3085</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>6612</v>
+        <v>6532</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2903922352457325</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0813707397108418</v>
+        <v>0.07914427927305642</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6224325723751606</v>
+        <v>0.6148833777078568</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>54</v>
@@ -5607,19 +5607,19 @@
         <v>60037</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46470</v>
+        <v>46550</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>73449</v>
+        <v>73065</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3346404819096488</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2590165094128176</v>
+        <v>0.2594647788819481</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4093990261201557</v>
+        <v>0.40725802342314</v>
       </c>
     </row>
     <row r="31">
@@ -5636,19 +5636,19 @@
         <v>52734</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>41846</v>
+        <v>41410</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>65980</v>
+        <v>65406</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3124296710392044</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2479229050348363</v>
+        <v>0.2453424293794894</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3909067748104338</v>
+        <v>0.3875068594451929</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5493</v>
+        <v>5353</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1841026745900697</v>
@@ -5669,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5170566458394061</v>
+        <v>0.5038958388665177</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>54</v>
@@ -5678,19 +5678,19 @@
         <v>54689</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>42426</v>
+        <v>44037</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>67365</v>
+        <v>68083</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3048315827379912</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2364763552004995</v>
+        <v>0.2454573048318938</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3754872893090911</v>
+        <v>0.3794884867299962</v>
       </c>
     </row>
     <row r="32">
@@ -5707,19 +5707,19 @@
         <v>17892</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>11483</v>
+        <v>10910</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27259</v>
+        <v>26853</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1060024403028192</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06803103303559695</v>
+        <v>0.06463977099953379</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1615005196180079</v>
+        <v>0.1590941048870315</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4</v>
@@ -5728,19 +5728,19 @@
         <v>4680</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1097</v>
+        <v>1174</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8574</v>
+        <v>8347</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4405725901870518</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1032707580179078</v>
+        <v>0.1105046091231175</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8071481318441334</v>
+        <v>0.7857655581923256</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -5749,19 +5749,19 @@
         <v>22572</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14910</v>
+        <v>14718</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>34258</v>
+        <v>33160</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1258119395672873</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08310925647879354</v>
+        <v>0.08203706069921866</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1909496731179979</v>
+        <v>0.1848277534164561</v>
       </c>
     </row>
     <row r="33">
@@ -5853,19 +5853,19 @@
         <v>60124</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>47554</v>
+        <v>48657</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>72050</v>
+        <v>72555</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4249284884383404</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3360903124131613</v>
+        <v>0.3438831590440746</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5092153389602909</v>
+        <v>0.5127811450848609</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5358</v>
+        <v>5132</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3210878564027354</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.8361330295944318</v>
+        <v>0.8008372760422569</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>54</v>
@@ -5895,19 +5895,19 @@
         <v>62182</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>50413</v>
+        <v>49564</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>75722</v>
+        <v>75124</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4204295755456336</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3408615991511857</v>
+        <v>0.3351211905024545</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5119784467787346</v>
+        <v>0.5079350416555719</v>
       </c>
     </row>
     <row r="35">
@@ -5924,19 +5924,19 @@
         <v>45488</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34301</v>
+        <v>34325</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57306</v>
+        <v>57376</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.321486449461861</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2424218993140733</v>
+        <v>0.2425888589885746</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4050064932165072</v>
+        <v>0.4055016806561478</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1968454518166826</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.7151496288520117</v>
+        <v>0.7153525623770344</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>43</v>
@@ -5966,19 +5966,19 @@
         <v>46749</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>35068</v>
+        <v>35217</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>58469</v>
+        <v>58831</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3160863572217304</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2371054609805541</v>
+        <v>0.2381157157135063</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3953292245256735</v>
+        <v>0.3977762346925934</v>
       </c>
     </row>
     <row r="36">
@@ -5995,19 +5995,19 @@
         <v>28598</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>19890</v>
+        <v>19456</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>40345</v>
+        <v>40473</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2021154288013837</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1405720225556096</v>
+        <v>0.1375058599151402</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2851393375839261</v>
+        <v>0.2860393862714075</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5352</v>
+        <v>5347</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3281221530327472</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.8352802069189694</v>
+        <v>0.8343700230834621</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>29</v>
@@ -6037,19 +6037,19 @@
         <v>30700</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22224</v>
+        <v>21957</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>42366</v>
+        <v>43106</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2075746913761517</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1502637109423881</v>
+        <v>0.148458653878902</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2864491720092661</v>
+        <v>0.2914551778699395</v>
       </c>
     </row>
     <row r="37">
@@ -6066,19 +6066,19 @@
         <v>7283</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2901</v>
+        <v>3014</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>13435</v>
+        <v>13873</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.05146963329841496</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02050467649975701</v>
+        <v>0.02130356241455798</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09495051409527366</v>
+        <v>0.09804724104923633</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4039</v>
+        <v>4182</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1539445387478348</v>
@@ -6099,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6302354493367907</v>
+        <v>0.6526160430138184</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>8</v>
@@ -6108,19 +6108,19 @@
         <v>8269</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3582</v>
+        <v>4076</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>15034</v>
+        <v>15569</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.05590937585648438</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02421782884227919</v>
+        <v>0.02755741419526272</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1016507548707057</v>
+        <v>0.1052641289889577</v>
       </c>
     </row>
     <row r="38">
@@ -6212,19 +6212,19 @@
         <v>144448</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>122444</v>
+        <v>123437</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>169702</v>
+        <v>169890</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1744872810217812</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1479071091804561</v>
+        <v>0.1491062284475008</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2049932602762478</v>
+        <v>0.205220052004365</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>21</v>
@@ -6233,19 +6233,19 @@
         <v>22625</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14671</v>
+        <v>14194</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>33266</v>
+        <v>32921</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.05784682357950875</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03750974581204088</v>
+        <v>0.03629045797449933</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.08505421287333445</v>
+        <v>0.08417052212498317</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>146</v>
@@ -6254,19 +6254,19 @@
         <v>167073</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>141407</v>
+        <v>143496</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>191811</v>
+        <v>192508</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1370619204849919</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1160064578666863</v>
+        <v>0.1177195437144644</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.157355968579327</v>
+        <v>0.1579278469405433</v>
       </c>
     </row>
     <row r="40">
@@ -6283,19 +6283,19 @@
         <v>204263</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>181214</v>
+        <v>181004</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>230114</v>
+        <v>234646</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2467414684490753</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2188987042940514</v>
+        <v>0.2186454014803156</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2779676042342413</v>
+        <v>0.283442814931583</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>63</v>
@@ -6304,19 +6304,19 @@
         <v>72836</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>57770</v>
+        <v>57344</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>91077</v>
+        <v>91222</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1862250253116924</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1477062019224077</v>
+        <v>0.1466169441404069</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2328635292565864</v>
+        <v>0.2332348513851835</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>249</v>
@@ -6325,19 +6325,19 @@
         <v>277099</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>245045</v>
+        <v>247733</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>307305</v>
+        <v>311000</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.227324108876891</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2010276859855856</v>
+        <v>0.203233156625327</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2521036846477535</v>
+        <v>0.2551349704303161</v>
       </c>
     </row>
     <row r="41">
@@ -6354,19 +6354,19 @@
         <v>256929</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>230942</v>
+        <v>229543</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>283604</v>
+        <v>283157</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3103593066666653</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2789680995639077</v>
+        <v>0.2772784449067887</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3425811737688066</v>
+        <v>0.3420409163967627</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>142</v>
@@ -6375,19 +6375,19 @@
         <v>153253</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>132222</v>
+        <v>131139</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>172557</v>
+        <v>173973</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3918336550335439</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3380628005485786</v>
+        <v>0.3352923098425138</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.441190990539881</v>
+        <v>0.4448094504286804</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>386</v>
@@ -6396,19 +6396,19 @@
         <v>410182</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>379722</v>
+        <v>377615</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>442914</v>
+        <v>446433</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3365012382827988</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3115127825775967</v>
+        <v>0.3097842883678782</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3633540003395743</v>
+        <v>0.3662407615972035</v>
       </c>
     </row>
     <row r="42">
@@ -6425,19 +6425,19 @@
         <v>222203</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2684119438624782</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>132</v>
@@ -6446,19 +6446,19 @@
         <v>142404</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3640944960752549</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>343</v>
@@ -6467,19 +6467,19 @@
         <v>364607</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2991127323553184</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
     </row>
     <row r="43">
@@ -6921,19 +6921,19 @@
         <v>4951</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1941</v>
+        <v>1959</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9742</v>
+        <v>9821</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2676278067894494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1049004473977859</v>
+        <v>0.1058812833828225</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5265893689969956</v>
+        <v>0.5308819190011212</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -6942,19 +6942,19 @@
         <v>4951</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1920</v>
+        <v>1955</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9902</v>
+        <v>10005</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1713073252498931</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06642273385554943</v>
+        <v>0.06765145457913718</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.342590976704932</v>
+        <v>0.3461763249889473</v>
       </c>
     </row>
     <row r="7">
@@ -6984,19 +6984,19 @@
         <v>13549</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8758</v>
+        <v>8679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16559</v>
+        <v>16541</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7323721932105506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4734106310030045</v>
+        <v>0.4691180809988788</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8950995526022142</v>
+        <v>0.8941187166171775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -7005,19 +7005,19 @@
         <v>23951</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19000</v>
+        <v>18897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26982</v>
+        <v>26947</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8286926747501069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6574090232950679</v>
+        <v>0.6538236750110525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9335772661444506</v>
+        <v>0.9323485454208628</v>
       </c>
     </row>
     <row r="8">
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7112</v>
+        <v>8753</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04288257272142187</v>
@@ -7168,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1347338694601569</v>
+        <v>0.1658221544751816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -7177,19 +7177,19 @@
         <v>2788</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7607</v>
+        <v>7597</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04588930805283912</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01496289093297321</v>
+        <v>0.01492363863099778</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1252043336329463</v>
+        <v>0.1250347731468089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -7198,19 +7198,19 @@
         <v>5052</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1867</v>
+        <v>1958</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11880</v>
+        <v>10981</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04449150285509675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01644589387958394</v>
+        <v>0.0172402263124859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1046262108243723</v>
+        <v>0.09671069904859178</v>
       </c>
     </row>
     <row r="11">
@@ -7227,19 +7227,19 @@
         <v>24263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17417</v>
+        <v>17352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31339</v>
+        <v>32035</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4596570610296951</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3299515250674788</v>
+        <v>0.3287223009424119</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5936901769094959</v>
+        <v>0.6068782978631972</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -7248,19 +7248,19 @@
         <v>21692</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14722</v>
+        <v>14461</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29044</v>
+        <v>29737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3570205928992415</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2423005373315457</v>
+        <v>0.2380037451822061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4780153818317268</v>
+        <v>0.4894270730501969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>45</v>
@@ -7269,19 +7269,19 @@
         <v>45956</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>35920</v>
+        <v>36315</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57295</v>
+        <v>56896</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4047353974354439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3163514654222122</v>
+        <v>0.3198300749053403</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5045951355129109</v>
+        <v>0.5010817769220622</v>
       </c>
     </row>
     <row r="12">
@@ -7298,19 +7298,19 @@
         <v>26259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18806</v>
+        <v>19139</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33104</v>
+        <v>33367</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4974603662488831</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3562664752544931</v>
+        <v>0.3625833779428219</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6271408345943701</v>
+        <v>0.6321231058813129</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -7319,19 +7319,19 @@
         <v>36279</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28641</v>
+        <v>28266</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43273</v>
+        <v>43660</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5970900990479193</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4713908880776098</v>
+        <v>0.4652125347188923</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7122141668742564</v>
+        <v>0.7185723775448372</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -7340,19 +7340,19 @@
         <v>62538</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51073</v>
+        <v>50271</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72470</v>
+        <v>71991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5507730997094594</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4498024652160214</v>
+        <v>0.4427334333817093</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6382403820319937</v>
+        <v>0.6340211408776601</v>
       </c>
     </row>
     <row r="13">
@@ -7447,7 +7447,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6532</v>
+        <v>5140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01186270635259781</v>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07605560973224887</v>
+        <v>0.05984414371126766</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5225</v>
+        <v>4683</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005530827906750697</v>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02836584192369477</v>
+        <v>0.02542251766122614</v>
       </c>
     </row>
     <row r="15">
@@ -7507,19 +7507,19 @@
         <v>8889</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4058</v>
+        <v>4198</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16799</v>
+        <v>16919</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1035006029427584</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04725152656723558</v>
+        <v>0.04887309392001923</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1955992954941926</v>
+        <v>0.1969892236732997</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>19</v>
@@ -7528,19 +7528,19 @@
         <v>20272</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13267</v>
+        <v>13215</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29019</v>
+        <v>29931</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2061754591042486</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1349307675603169</v>
+        <v>0.1343993484817049</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2951367158753149</v>
+        <v>0.3044134451487784</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>27</v>
@@ -7549,19 +7549,19 @@
         <v>29161</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>19655</v>
+        <v>19996</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>40268</v>
+        <v>40236</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1583046830013549</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1066968056834636</v>
+        <v>0.1085509821208589</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2185984189602905</v>
+        <v>0.2184257999095216</v>
       </c>
     </row>
     <row r="16">
@@ -7578,19 +7578,19 @@
         <v>36689</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27230</v>
+        <v>27095</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46402</v>
+        <v>46818</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4271843873505114</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3170458084389434</v>
+        <v>0.3154769831720395</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5402728475091235</v>
+        <v>0.5451160180280352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -7599,19 +7599,19 @@
         <v>49351</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39357</v>
+        <v>39310</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59999</v>
+        <v>58959</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5019220257733203</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4002763319603205</v>
+        <v>0.3997956543133512</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6102087441972122</v>
+        <v>0.5996357604986567</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>83</v>
@@ -7620,19 +7620,19 @@
         <v>86041</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>72291</v>
+        <v>72168</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99353</v>
+        <v>99779</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4670766031532962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3924345505710871</v>
+        <v>0.3917671249820485</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5393425192254483</v>
+        <v>0.5416536175352964</v>
       </c>
     </row>
     <row r="17">
@@ -7649,19 +7649,19 @@
         <v>39289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29620</v>
+        <v>29734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48975</v>
+        <v>49490</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4574523033541324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3448799289993844</v>
+        <v>0.3462034966866886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5702382003661286</v>
+        <v>0.5762329369199138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -7670,19 +7670,19 @@
         <v>28701</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20767</v>
+        <v>20497</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39204</v>
+        <v>38371</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2919025151224311</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2112056477713505</v>
+        <v>0.2084621458007286</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3987168302843033</v>
+        <v>0.3902480380024138</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -7691,19 +7691,19 @@
         <v>67990</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55199</v>
+        <v>54022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>81938</v>
+        <v>80951</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3690878859385981</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2996527590691839</v>
+        <v>0.2932593270472789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4448036272694902</v>
+        <v>0.4394456783495556</v>
       </c>
     </row>
     <row r="18">
@@ -7795,19 +7795,19 @@
         <v>13337</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7314</v>
+        <v>7348</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21105</v>
+        <v>21891</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1019770661653915</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05592644931439316</v>
+        <v>0.05618403044232204</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1613716922355505</v>
+        <v>0.1673774045558609</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -7816,19 +7816,19 @@
         <v>10142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4794</v>
+        <v>4751</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17604</v>
+        <v>17811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09984472003848338</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04719585610318258</v>
+        <v>0.04677468010821588</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1733144102100623</v>
+        <v>0.1753496725570075</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -7837,19 +7837,19 @@
         <v>23479</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15358</v>
+        <v>15180</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35787</v>
+        <v>35314</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1010449270316825</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06609690049377955</v>
+        <v>0.06532742981757091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1540128347272145</v>
+        <v>0.1519791472505858</v>
       </c>
     </row>
     <row r="20">
@@ -7866,19 +7866,19 @@
         <v>34217</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>24900</v>
+        <v>24469</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>45057</v>
+        <v>44838</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2616226170673079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1903867295532859</v>
+        <v>0.1870924804534605</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3445130914284958</v>
+        <v>0.3428344486630139</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>32</v>
@@ -7887,19 +7887,19 @@
         <v>33899</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24540</v>
+        <v>23840</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44557</v>
+        <v>43228</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3337379154208535</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2415906390021803</v>
+        <v>0.2347047041705427</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4386573194857769</v>
+        <v>0.4255726260935484</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -7908,19 +7908,19 @@
         <v>68116</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>55109</v>
+        <v>53308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>83620</v>
+        <v>82775</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2931472794502907</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.237171267086542</v>
+        <v>0.2294169976503176</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3598700184136818</v>
+        <v>0.3562330280509532</v>
       </c>
     </row>
     <row r="21">
@@ -7937,19 +7937,19 @@
         <v>51527</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40349</v>
+        <v>39806</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>63335</v>
+        <v>63565</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3939785829548024</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3085131256219377</v>
+        <v>0.3043588917183159</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4842645064227722</v>
+        <v>0.4860196285265772</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>33</v>
@@ -7958,19 +7958,19 @@
         <v>34332</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>25402</v>
+        <v>24225</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44673</v>
+        <v>44688</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3379950088258889</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2500768148641162</v>
+        <v>0.2384967363895679</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4398009325567548</v>
+        <v>0.4399465918545555</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>79</v>
@@ -7979,19 +7979,19 @@
         <v>85859</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>70131</v>
+        <v>70677</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>100464</v>
+        <v>101788</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3695057829567433</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3018170511141065</v>
+        <v>0.3041696160046404</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.432362158092906</v>
+        <v>0.438061557070318</v>
       </c>
     </row>
     <row r="22">
@@ -8008,19 +8008,19 @@
         <v>31705</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22708</v>
+        <v>22670</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42651</v>
+        <v>43247</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2424217338124982</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1736305391931175</v>
+        <v>0.17333311250141</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3261102039405125</v>
+        <v>0.3306709810731324</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -8029,19 +8029,19 @@
         <v>23202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15232</v>
+        <v>14624</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33187</v>
+        <v>33360</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2284223557147742</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1499554696036059</v>
+        <v>0.143970277939211</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.326721602203714</v>
+        <v>0.3284264880441966</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -8050,19 +8050,19 @@
         <v>54907</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40654</v>
+        <v>42983</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70191</v>
+        <v>68705</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2363020105612836</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1749601877371542</v>
+        <v>0.1849830953853454</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3020762683557871</v>
+        <v>0.2956808678710054</v>
       </c>
     </row>
     <row r="23">
@@ -8154,19 +8154,19 @@
         <v>35653</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>24930</v>
+        <v>25413</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47039</v>
+        <v>47771</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2242539819750114</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1568055730537904</v>
+        <v>0.1598407540979168</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2958652177129795</v>
+        <v>0.3004736033548282</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -8175,19 +8175,19 @@
         <v>4886</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1169</v>
+        <v>1191</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11452</v>
+        <v>11459</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0715738323117564</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01712812577049848</v>
+        <v>0.01744303093017105</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1677423592630164</v>
+        <v>0.1678506476653716</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>36</v>
@@ -8196,19 +8196,19 @@
         <v>40540</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>29532</v>
+        <v>29125</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>53849</v>
+        <v>53123</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1783868104079446</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1299493295669802</v>
+        <v>0.1281571622520688</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2369510362735807</v>
+        <v>0.2337551943862458</v>
       </c>
     </row>
     <row r="25">
@@ -8225,19 +8225,19 @@
         <v>44684</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33265</v>
+        <v>33711</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>57303</v>
+        <v>57007</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2810539524445149</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2092297355738235</v>
+        <v>0.2120331007993531</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3604257575824759</v>
+        <v>0.3585628138400012</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -8246,19 +8246,19 @@
         <v>20790</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12818</v>
+        <v>13377</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>29773</v>
+        <v>29681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3045114945514404</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1877504572224258</v>
+        <v>0.1959309581600849</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4360947502850568</v>
+        <v>0.434744670760842</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -8267,19 +8267,19 @@
         <v>65474</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51036</v>
+        <v>51562</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>79010</v>
+        <v>80660</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.288100913760266</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2245707012814434</v>
+        <v>0.2268850567779515</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3476647784457761</v>
+        <v>0.354923640639015</v>
       </c>
     </row>
     <row r="26">
@@ -8296,19 +8296,19 @@
         <v>49076</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37058</v>
+        <v>38339</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63117</v>
+        <v>63214</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3086799710457985</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2330904555755615</v>
+        <v>0.2411472877681005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3969966427820614</v>
+        <v>0.3976033111714459</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>25</v>
@@ -8317,19 +8317,19 @@
         <v>29835</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21571</v>
+        <v>20411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39286</v>
+        <v>38637</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4370053220676821</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3159520125200954</v>
+        <v>0.2989676143048532</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5754376045666943</v>
+        <v>0.5659253204699358</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>67</v>
@@ -8338,19 +8338,19 @@
         <v>78911</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>64809</v>
+        <v>64554</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>95140</v>
+        <v>95372</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3472306333598357</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2851764874080487</v>
+        <v>0.2840537795225008</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4186391565952274</v>
+        <v>0.4196615091536993</v>
       </c>
     </row>
     <row r="27">
@@ -8367,19 +8367,19 @@
         <v>29574</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20778</v>
+        <v>20563</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>40484</v>
+        <v>40978</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1860120945346752</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.13069094500076</v>
+        <v>0.1293345358748593</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2546376208284614</v>
+        <v>0.2577431947372688</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -8388,19 +8388,19 @@
         <v>12761</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>7399</v>
+        <v>6710</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>20345</v>
+        <v>21031</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1869093510691211</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1083774679660444</v>
+        <v>0.09827755000268028</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2980064630687528</v>
+        <v>0.3080431959001108</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -8409,19 +8409,19 @@
         <v>42334</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>30495</v>
+        <v>30307</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>54474</v>
+        <v>54930</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1862816424719537</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1341864187017809</v>
+        <v>0.1333602340287631</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2397000192760667</v>
+        <v>0.2417077261837716</v>
       </c>
     </row>
     <row r="28">
@@ -8513,19 +8513,19 @@
         <v>37052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>26868</v>
+        <v>27787</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48488</v>
+        <v>47822</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2653771599602568</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1924313193408017</v>
+        <v>0.1990151698285829</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3472804020733132</v>
+        <v>0.3425132597108173</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>6</v>
@@ -8534,19 +8534,19 @@
         <v>6265</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2135</v>
+        <v>2912</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>12519</v>
+        <v>11539</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2032340375947501</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06924392307768602</v>
+        <v>0.09447868709862386</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4061195753928573</v>
+        <v>0.374316972639892</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -8555,19 +8555,19 @@
         <v>43317</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33369</v>
+        <v>32841</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56307</v>
+        <v>57426</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.254138139572099</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1957739480498183</v>
+        <v>0.1926731112944356</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3303476198134839</v>
+        <v>0.3369102885915493</v>
       </c>
     </row>
     <row r="30">
@@ -8584,19 +8584,19 @@
         <v>47442</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>36793</v>
+        <v>36550</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>59377</v>
+        <v>59721</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3397902904432195</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2635183960726482</v>
+        <v>0.2617801413969785</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.425268618552044</v>
+        <v>0.4277315003163712</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>10</v>
@@ -8605,19 +8605,19 @@
         <v>11099</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6215</v>
+        <v>6358</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17299</v>
+        <v>17449</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3600494752714047</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.201607162769694</v>
+        <v>0.2062509895926295</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5611627031243656</v>
+        <v>0.5660260629006633</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -8626,19 +8626,19 @@
         <v>58541</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>46906</v>
+        <v>45416</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>72316</v>
+        <v>71943</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3434543063900239</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2751916155130086</v>
+        <v>0.2664480902588889</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4242691637485784</v>
+        <v>0.4220809596145135</v>
       </c>
     </row>
     <row r="31">
@@ -8655,19 +8655,19 @@
         <v>34494</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>23702</v>
+        <v>24810</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>45468</v>
+        <v>45280</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2470525020495309</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1697575272305292</v>
+        <v>0.1776959352015615</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3256498525609336</v>
+        <v>0.3243007449123468</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>7</v>
@@ -8676,19 +8676,19 @@
         <v>7366</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3152</v>
+        <v>3216</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12932</v>
+        <v>13281</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2389392189835796</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1022473574823303</v>
+        <v>0.1043146545302681</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4195173829931207</v>
+        <v>0.4308301762818227</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -8697,19 +8697,19 @@
         <v>41859</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31181</v>
+        <v>32323</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>54020</v>
+        <v>54935</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.245585157791275</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1829378365518951</v>
+        <v>0.1896356387061376</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3169297127879205</v>
+        <v>0.3222956380597739</v>
       </c>
     </row>
     <row r="32">
@@ -8726,19 +8726,19 @@
         <v>20633</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12929</v>
+        <v>13136</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30142</v>
+        <v>29850</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1477800475469927</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0926021175012028</v>
+        <v>0.0940806727984172</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.215884508894584</v>
+        <v>0.2137928548782541</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -8747,19 +8747,19 @@
         <v>6097</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2115</v>
+        <v>2105</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11557</v>
+        <v>11360</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1977772681502656</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06860637584788619</v>
+        <v>0.06829875219257198</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.374893964220525</v>
+        <v>0.3685167316945066</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>27</v>
@@ -8768,19 +8768,19 @@
         <v>26730</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>18465</v>
+        <v>18443</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36470</v>
+        <v>37403</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1568223962466021</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1083329737439911</v>
+        <v>0.1082050837966527</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2139659495837871</v>
+        <v>0.2194406582251902</v>
       </c>
     </row>
     <row r="33">
@@ -8872,19 +8872,19 @@
         <v>41499</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>32406</v>
+        <v>32090</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51302</v>
+        <v>50454</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3543377794473568</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2766927548913183</v>
+        <v>0.273993617484926</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4380350865548578</v>
+        <v>0.4307995408945367</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -8914,19 +8914,19 @@
         <v>43371</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>34177</v>
+        <v>33533</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>53293</v>
+        <v>53620</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3570049353946765</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2813291292746448</v>
+        <v>0.2760223224537653</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4386783756057019</v>
+        <v>0.4413717114441507</v>
       </c>
     </row>
     <row r="35">
@@ -8943,19 +8943,19 @@
         <v>49816</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>39484</v>
+        <v>39861</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>59121</v>
+        <v>60431</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4253490919202119</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3371269537966339</v>
+        <v>0.3403497601057026</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5048013345122596</v>
+        <v>0.5159816822613048</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -8985,19 +8985,19 @@
         <v>52312</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>42217</v>
+        <v>41534</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>63107</v>
+        <v>62867</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4306011064552096</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3475114431354073</v>
+        <v>0.34188368351295</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.5194670951287822</v>
+        <v>0.5174842360271178</v>
       </c>
     </row>
     <row r="36">
@@ -9014,19 +9014,19 @@
         <v>20872</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>14156</v>
+        <v>14305</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>28727</v>
+        <v>28819</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1782123898707279</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1208728978830815</v>
+        <v>0.1221419674726886</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2452824698600063</v>
+        <v>0.2460694696549814</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9048,19 +9048,19 @@
         <v>20872</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>14059</v>
+        <v>13820</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29836</v>
+        <v>29137</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1718065333236944</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1157299273861432</v>
+        <v>0.1137583449924079</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2455946689896137</v>
+        <v>0.2398389065907565</v>
       </c>
     </row>
     <row r="37">
@@ -9080,16 +9080,16 @@
         <v>1707</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>10322</v>
+        <v>10803</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.04210073876170334</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0145764602373341</v>
+        <v>0.01457704956078849</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.08813218061777919</v>
+        <v>0.09224353691747247</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -9111,19 +9111,19 @@
         <v>4931</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1816</v>
+        <v>1721</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>10375</v>
+        <v>10687</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04058742482641951</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01494933893440151</v>
+        <v>0.01416532217982935</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08540248934642947</v>
+        <v>0.08796874965497357</v>
       </c>
     </row>
     <row r="38">
@@ -9215,19 +9215,19 @@
         <v>128561</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>109375</v>
+        <v>108114</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>148364</v>
+        <v>149710</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1848241017403446</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1572418911535914</v>
+        <v>0.1554290715409765</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2132933888223362</v>
+        <v>0.215228551685032</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>20</v>
@@ -9236,19 +9236,19 @@
         <v>23165</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>14937</v>
+        <v>14332</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>34677</v>
+        <v>35650</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.06054126190911319</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03903775400368289</v>
+        <v>0.03745782605471942</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09063055540798838</v>
+        <v>0.09317221934721656</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>149</v>
@@ -9257,19 +9257,19 @@
         <v>151726</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>130986</v>
+        <v>130656</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>175917</v>
+        <v>177085</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.140719915730364</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.121484611207095</v>
+        <v>0.1211781769346193</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1631561719169058</v>
+        <v>0.1642397899505142</v>
       </c>
     </row>
     <row r="40">
@@ -9286,19 +9286,19 @@
         <v>187312</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>164674</v>
+        <v>164082</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>210625</v>
+        <v>212465</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2692855216368479</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.236741695771163</v>
+        <v>0.2358906076698593</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3028012705537322</v>
+        <v>0.3054468819557877</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>83</v>
@@ -9307,19 +9307,19 @@
         <v>91344</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>74772</v>
+        <v>74314</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>110497</v>
+        <v>109297</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2387298793438447</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.195418009214027</v>
+        <v>0.19422293894887</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2887883851607289</v>
+        <v>0.2856510826269523</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>272</v>
@@ -9328,19 +9328,19 @@
         <v>278655</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>248924</v>
+        <v>248853</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>308566</v>
+        <v>309134</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2584422569256855</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2308674180101114</v>
+        <v>0.2308014009143292</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2861837445023867</v>
+        <v>0.2867097688438344</v>
       </c>
     </row>
     <row r="41">
@@ -9357,19 +9357,19 @@
         <v>216922</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>188896</v>
+        <v>189969</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>239625</v>
+        <v>244320</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3118538789424917</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2715640014887248</v>
+        <v>0.2731057950474647</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3444932728065597</v>
+        <v>0.3512426798161484</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>140</v>
@@ -9378,19 +9378,19 @@
         <v>147527</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>128152</v>
+        <v>128798</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>166466</v>
+        <v>170260</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3855674025954204</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3349292546934833</v>
+        <v>0.3366164928061032</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4350631622015058</v>
+        <v>0.4449803291596165</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>343</v>
@@ -9399,19 +9399,19 @@
         <v>364449</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>332029</v>
+        <v>337190</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>395049</v>
+        <v>398307</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3380125583149186</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3079444782492491</v>
+        <v>0.3127309146767763</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3663925955661661</v>
+        <v>0.3694145166671713</v>
       </c>
     </row>
     <row r="42">
@@ -9428,19 +9428,19 @@
         <v>162793</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2340364976803158</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>118</v>
@@ -9449,19 +9449,19 @@
         <v>120588</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>102146</v>
+        <v>103128</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>138095</v>
+        <v>139909</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3151614561516217</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2669612256824668</v>
+        <v>0.2695284961120149</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3609156501673641</v>
+        <v>0.3656569510912325</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>270</v>
@@ -9470,19 +9470,19 @@
         <v>283381</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>251397</v>
+        <v>255830</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>311132</v>
+        <v>315461</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2628252690290319</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2331613379109153</v>
+        <v>0.2372730898037181</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2885631249987764</v>
+        <v>0.2925783854420679</v>
       </c>
     </row>
     <row r="43">
@@ -9927,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10133</v>
+        <v>10517</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2187869347406453</v>
@@ -9936,7 +9936,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5451287023850361</v>
+        <v>0.5657525320000749</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11817</v>
+        <v>12414</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1623302482652525</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4716727648909714</v>
+        <v>0.4955031917524051</v>
       </c>
     </row>
     <row r="7">
@@ -9987,16 +9987,16 @@
         <v>14522</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8456</v>
+        <v>8072</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>18589</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7812130652593547</v>
+        <v>0.7812130652593546</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4548712976149645</v>
+        <v>0.4342474679999263</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -10008,7 +10008,7 @@
         <v>20987</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13237</v>
+        <v>12640</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>25054</v>
@@ -10017,7 +10017,7 @@
         <v>0.8376697517347474</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5283272351090278</v>
+        <v>0.5044968082475957</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5989</v>
+        <v>7891</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04986947469209994</v>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2444704052888513</v>
+        <v>0.3221180657495094</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -10180,19 +10180,19 @@
         <v>6407</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2728</v>
+        <v>2609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12356</v>
+        <v>12486</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1880596259004909</v>
+        <v>0.1880596259004908</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08007846996204017</v>
+        <v>0.07658532469276114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3626700063233073</v>
+        <v>0.3665047819042302</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -10201,19 +10201,19 @@
         <v>7629</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3236</v>
+        <v>3243</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14981</v>
+        <v>14657</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1302577302379196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05525663601829845</v>
+        <v>0.05537688737330226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2557934659851193</v>
+        <v>0.2502690172054153</v>
       </c>
     </row>
     <row r="11">
@@ -10230,19 +10230,19 @@
         <v>11916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5757</v>
+        <v>5508</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18661</v>
+        <v>18568</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4864381943594066</v>
+        <v>0.4864381943594065</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2350200404702378</v>
+        <v>0.2248522491690133</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7617764150802793</v>
+        <v>0.7579719713372437</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>12</v>
@@ -10251,19 +10251,19 @@
         <v>12983</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7159</v>
+        <v>7538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19209</v>
+        <v>19134</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3810774256909986</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2101181852114038</v>
+        <v>0.2212442020348085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5638158748574478</v>
+        <v>0.5616188131150978</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -10272,19 +10272,19 @@
         <v>24899</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15807</v>
+        <v>16307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33459</v>
+        <v>34073</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4251475139298906</v>
+        <v>0.4251475139298908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2699103031921704</v>
+        <v>0.2784421616615534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5713137012657765</v>
+        <v>0.5817994984884927</v>
       </c>
     </row>
     <row r="12">
@@ -10301,19 +10301,19 @@
         <v>11359</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4746</v>
+        <v>5011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17868</v>
+        <v>18166</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4636923309484934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1937522530664258</v>
+        <v>0.2045694357912529</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7293930427337529</v>
+        <v>0.7415411571358876</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -10322,19 +10322,19 @@
         <v>14679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8516</v>
+        <v>8705</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21187</v>
+        <v>20814</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4308629484085107</v>
+        <v>0.4308629484085106</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2499591274981162</v>
+        <v>0.2555082061857586</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6218884156991078</v>
+        <v>0.6109256861422614</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>19</v>
@@ -10343,19 +10343,19 @@
         <v>26038</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17709</v>
+        <v>16542</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35118</v>
+        <v>34186</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4445947558321898</v>
+        <v>0.4445947558321899</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3023893906653037</v>
+        <v>0.2824526050294781</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5996353489752145</v>
+        <v>0.5837327619546172</v>
       </c>
     </row>
     <row r="13">
@@ -10460,19 +10460,19 @@
         <v>3252</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7842</v>
+        <v>7810</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.05756281237364066</v>
+        <v>0.05756281237364068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01487202626633883</v>
+        <v>0.01459174498354231</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1387994401393498</v>
+        <v>0.1382305987044511</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -10481,19 +10481,19 @@
         <v>3252</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>801</v>
+        <v>847</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7937</v>
+        <v>7694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03103694270448671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.007647974777950635</v>
+        <v>0.008080483847869451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07574292214485694</v>
+        <v>0.07342747898639036</v>
       </c>
     </row>
     <row r="15">
@@ -10510,19 +10510,19 @@
         <v>13567</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7360</v>
+        <v>7352</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>20903</v>
+        <v>20403</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2809632276313393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1524066683842998</v>
+        <v>0.1522528869969162</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4328768202401153</v>
+        <v>0.422523304002703</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -10531,19 +10531,19 @@
         <v>10764</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>6050</v>
+        <v>6336</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>16319</v>
+        <v>16657</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1905169976706979</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1070751516982306</v>
+        <v>0.1121452299367244</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2888326814222639</v>
+        <v>0.2948096858901521</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>26</v>
@@ -10552,19 +10552,19 @@
         <v>24332</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16297</v>
+        <v>16979</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>34035</v>
+        <v>33296</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2321960749963383</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1555207312966211</v>
+        <v>0.16203226803212</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.324789235105516</v>
+        <v>0.3177412227484027</v>
       </c>
     </row>
     <row r="16">
@@ -10581,19 +10581,19 @@
         <v>19695</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12479</v>
+        <v>12420</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27170</v>
+        <v>28043</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4078600216901573</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.258432427082295</v>
+        <v>0.257206648520504</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5626523789786161</v>
+        <v>0.5807426539823048</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -10602,19 +10602,19 @@
         <v>22698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16776</v>
+        <v>16841</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29132</v>
+        <v>29337</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4017231758951065</v>
+        <v>0.4017231758951066</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2969172128857722</v>
+        <v>0.298069011452108</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5156054325204783</v>
+        <v>0.5192358145815106</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -10623,19 +10623,19 @@
         <v>42393</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32688</v>
+        <v>32965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52129</v>
+        <v>52375</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4045511331304579</v>
+        <v>0.404551133130458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3119367311631523</v>
+        <v>0.3145791574677386</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4974591007567462</v>
+        <v>0.499804745419314</v>
       </c>
     </row>
     <row r="17">
@@ -10652,19 +10652,19 @@
         <v>15026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8810</v>
+        <v>8587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23928</v>
+        <v>23896</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3111767506785034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1824515337238402</v>
+        <v>0.1778218281262887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4955191767576291</v>
+        <v>0.494863032942767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -10673,19 +10673,19 @@
         <v>19786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14054</v>
+        <v>13805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26254</v>
+        <v>25794</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3501970140605549</v>
+        <v>0.350197014060555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2487449657759301</v>
+        <v>0.2443380661037371</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4646585915165999</v>
+        <v>0.456525225051103</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -10694,19 +10694,19 @@
         <v>34813</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26599</v>
+        <v>25461</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>46804</v>
+        <v>44874</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.332215849168717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2538285876886299</v>
+        <v>0.2429703325325284</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4466432876653142</v>
+        <v>0.428230479425009</v>
       </c>
     </row>
     <row r="18">
@@ -10798,19 +10798,19 @@
         <v>13062</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7061</v>
+        <v>6596</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21882</v>
+        <v>21147</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1140048088213716</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06163249147175678</v>
+        <v>0.05757349087469172</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1909883548823602</v>
+        <v>0.1845729792050981</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -10819,19 +10819,19 @@
         <v>15129</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9695</v>
+        <v>10012</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21820</v>
+        <v>21666</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1649444074562461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1056933198479596</v>
+        <v>0.1091584364986173</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2378936876559132</v>
+        <v>0.236208606693924</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -10840,19 +10840,19 @@
         <v>28191</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19724</v>
+        <v>19606</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37943</v>
+        <v>39174</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1366534541106683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0956095973786137</v>
+        <v>0.09503885574322837</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1839242125512164</v>
+        <v>0.1898926486672554</v>
       </c>
     </row>
     <row r="20">
@@ -10869,19 +10869,19 @@
         <v>46783</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>35768</v>
+        <v>35861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>58099</v>
+        <v>57881</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4083262204654883</v>
+        <v>0.4083262204654884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3121876446488537</v>
+        <v>0.31299913174171</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5070924241834006</v>
+        <v>0.5051931657735812</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -10890,19 +10890,19 @@
         <v>35933</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28082</v>
+        <v>28495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43216</v>
+        <v>43193</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3917550134181113</v>
+        <v>0.3917550134181114</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3061622787778212</v>
+        <v>0.3106689210446982</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4711575356377777</v>
+        <v>0.4709083872514367</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>95</v>
@@ -10911,19 +10911,19 @@
         <v>82716</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>69483</v>
+        <v>70065</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>96954</v>
+        <v>98087</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4009583691182148</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3368119569260187</v>
+        <v>0.3396334391533076</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4699796580024822</v>
+        <v>0.4754714189603223</v>
       </c>
     </row>
     <row r="21">
@@ -10940,19 +10940,19 @@
         <v>34844</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24994</v>
+        <v>24809</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47861</v>
+        <v>46240</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3041181776553229</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2181469063198195</v>
+        <v>0.2165379525211716</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4177298072711741</v>
+        <v>0.4035822113512301</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -10961,19 +10961,19 @@
         <v>18219</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12466</v>
+        <v>12469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24977</v>
+        <v>24858</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1986281762609836</v>
+        <v>0.1986281762609838</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1359113289196305</v>
+        <v>0.1359388523933809</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2723044582160746</v>
+        <v>0.2710088160522708</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>58</v>
@@ -10982,19 +10982,19 @@
         <v>53062</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>41866</v>
+        <v>41814</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>65667</v>
+        <v>66287</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2572154597860052</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.202940542894922</v>
+        <v>0.202691997455833</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3183156719892603</v>
+        <v>0.3213201644776902</v>
       </c>
     </row>
     <row r="22">
@@ -11011,19 +11011,19 @@
         <v>19884</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12491</v>
+        <v>12466</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29462</v>
+        <v>31164</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1735507930578171</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1090178543395115</v>
+        <v>0.1088016083532327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.257149306508431</v>
+        <v>0.2719995698182843</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -11032,19 +11032,19 @@
         <v>22442</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16663</v>
+        <v>16865</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29861</v>
+        <v>29683</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2446724028646588</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1816662564220148</v>
+        <v>0.1838696042702386</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3255595551452853</v>
+        <v>0.3236105638147723</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>52</v>
@@ -11053,19 +11053,19 @@
         <v>42326</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32632</v>
+        <v>32460</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54705</v>
+        <v>54796</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2051727169851117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1581792218003105</v>
+        <v>0.1573487556357746</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2651802988113077</v>
+        <v>0.2656208629063853</v>
       </c>
     </row>
     <row r="23">
@@ -11157,19 +11157,19 @@
         <v>42086</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>31885</v>
+        <v>32483</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>53124</v>
+        <v>54561</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2601374616326389</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1970861786780241</v>
+        <v>0.2007835615254964</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3283666949904816</v>
+        <v>0.3372487504631189</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>40</v>
@@ -11178,19 +11178,19 @@
         <v>25805</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19260</v>
+        <v>19176</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32850</v>
+        <v>32576</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2756896397760943</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2057667017746733</v>
+        <v>0.2048659270253293</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3509555959297624</v>
+        <v>0.3480199711403946</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>86</v>
@@ -11199,19 +11199,19 @@
         <v>67891</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>56406</v>
+        <v>57376</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82806</v>
+        <v>81275</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2658375973679563</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2208646676184067</v>
+        <v>0.224663532311212</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3242415175272885</v>
+        <v>0.3182466769535635</v>
       </c>
     </row>
     <row r="25">
@@ -11228,19 +11228,19 @@
         <v>53276</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>41816</v>
+        <v>41872</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66672</v>
+        <v>65384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3293059114846582</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.258471358807403</v>
+        <v>0.2588162808574506</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4121114034862583</v>
+        <v>0.4041516732987385</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -11249,19 +11249,19 @@
         <v>28590</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21851</v>
+        <v>21671</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>35638</v>
+        <v>35162</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3054346136196092</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2334455525294563</v>
+        <v>0.2315205553899277</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3807367892164189</v>
+        <v>0.3756484668036569</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>102</v>
@@ -11270,19 +11270,19 @@
         <v>81865</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>68387</v>
+        <v>67656</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95992</v>
+        <v>96194</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3205566779847686</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2677783073283638</v>
+        <v>0.2649180618886004</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.375871068006039</v>
+        <v>0.3766637100373372</v>
       </c>
     </row>
     <row r="26">
@@ -11299,19 +11299,19 @@
         <v>43370</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>32824</v>
+        <v>32920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>54990</v>
+        <v>55180</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2680770130917093</v>
+        <v>0.2680770130917092</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.202888709312621</v>
+        <v>0.2034857872531971</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3399011538431695</v>
+        <v>0.3410767079890565</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>33</v>
@@ -11320,19 +11320,19 @@
         <v>20147</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14760</v>
+        <v>14210</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26939</v>
+        <v>26868</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2152360626116653</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1576889835262806</v>
+        <v>0.1518157226448161</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2877978080381096</v>
+        <v>0.2870421415102926</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>79</v>
@@ -11341,19 +11341,19 @@
         <v>63517</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>52397</v>
+        <v>51715</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>76379</v>
+        <v>76464</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.248709913040442</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2051703309923641</v>
+        <v>0.2024976645716173</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.299072292731708</v>
+        <v>0.2994073030656272</v>
       </c>
     </row>
     <row r="27">
@@ -11370,19 +11370,19 @@
         <v>23051</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15517</v>
+        <v>15274</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>32888</v>
+        <v>32545</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1424796137909937</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09591425567000014</v>
+        <v>0.09441340844551882</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2032856392845796</v>
+        <v>0.2011658555792342</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>30</v>
@@ -11391,19 +11391,19 @@
         <v>19061</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>13438</v>
+        <v>13691</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25594</v>
+        <v>25827</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2036396839926311</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1435671720745776</v>
+        <v>0.146264722341941</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2734342275397855</v>
+        <v>0.2759245307748761</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>56</v>
@@ -11412,19 +11412,19 @@
         <v>42112</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>32427</v>
+        <v>31765</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>53334</v>
+        <v>53570</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1648958116068331</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1269736355009419</v>
+        <v>0.1243806642990217</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2088363832911636</v>
+        <v>0.2097620917234151</v>
       </c>
     </row>
     <row r="28">
@@ -11516,19 +11516,19 @@
         <v>60870</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>51037</v>
+        <v>50205</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>71913</v>
+        <v>71179</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3577924373145618</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2999958354142502</v>
+        <v>0.2951014353102921</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.422703989598914</v>
+        <v>0.4183850755672706</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -11537,19 +11537,19 @@
         <v>18877</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14175</v>
+        <v>14274</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23801</v>
+        <v>24442</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4025962501227784</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3023061429005677</v>
+        <v>0.304434890304819</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5076180484822924</v>
+        <v>0.5212853014940729</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>118</v>
@@ -11558,19 +11558,19 @@
         <v>79747</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>68676</v>
+        <v>68272</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>92429</v>
+        <v>92745</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3674726584044434</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3164556974301735</v>
+        <v>0.3145939585930244</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4259083695318169</v>
+        <v>0.4273659354400591</v>
       </c>
     </row>
     <row r="30">
@@ -11587,19 +11587,19 @@
         <v>55893</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45933</v>
+        <v>45595</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>66003</v>
+        <v>66380</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3285377712268925</v>
+        <v>0.3285377712268924</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2699923919333275</v>
+        <v>0.268008599905079</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3879656074715241</v>
+        <v>0.390176556518204</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -11608,19 +11608,19 @@
         <v>10963</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>7215</v>
+        <v>6983</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>15776</v>
+        <v>15539</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2338117329836307</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1538707403395627</v>
+        <v>0.1489317662188402</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3364663528792067</v>
+        <v>0.3314076956090177</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>96</v>
@@ -11629,19 +11629,19 @@
         <v>66856</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>54842</v>
+        <v>57202</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>78276</v>
+        <v>79276</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3080714551772196</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2527112645254813</v>
+        <v>0.2635844587966409</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3606961194512976</v>
+        <v>0.3653009180587117</v>
       </c>
     </row>
     <row r="31">
@@ -11658,19 +11658,19 @@
         <v>32278</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>24273</v>
+        <v>24215</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>41908</v>
+        <v>41276</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1897298385657057</v>
+        <v>0.1897298385657056</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.142676670548598</v>
+        <v>0.1423319971470775</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2463307262841506</v>
+        <v>0.2426181262156526</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>20</v>
@@ -11679,19 +11679,19 @@
         <v>10766</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6987</v>
+        <v>6632</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>15407</v>
+        <v>15444</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2296216147531896</v>
+        <v>0.2296216147531895</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1490123825726833</v>
+        <v>0.1414508815788547</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3285995483902083</v>
+        <v>0.3293763272432874</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>65</v>
@@ -11700,19 +11700,19 @@
         <v>43045</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34543</v>
+        <v>33762</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>53354</v>
+        <v>53834</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1983487749677455</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1591739650544529</v>
+        <v>0.1555748362708989</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2458526478155502</v>
+        <v>0.2480668499815854</v>
       </c>
     </row>
     <row r="32">
@@ -11729,19 +11729,19 @@
         <v>21086</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14784</v>
+        <v>14446</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>29471</v>
+        <v>29701</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.12393995289284</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0868978874944733</v>
+        <v>0.08491432477099377</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1732318400914358</v>
+        <v>0.1745792826273975</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>11</v>
@@ -11750,7 +11750,7 @@
         <v>6282</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3156</v>
+        <v>3073</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>10195</v>
@@ -11759,10 +11759,10 @@
         <v>0.1339704021404012</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0673114316842463</v>
+        <v>0.06552864489266953</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2174432496707273</v>
+        <v>0.2174235821489525</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>39</v>
@@ -11771,19 +11771,19 @@
         <v>27367</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>19837</v>
+        <v>19606</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36071</v>
+        <v>36907</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1261071114505916</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.091408469473872</v>
+        <v>0.09034195585437001</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.166213613528023</v>
+        <v>0.1700659440571123</v>
       </c>
     </row>
     <row r="33">
@@ -11875,19 +11875,19 @@
         <v>72016</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>62917</v>
+        <v>63127</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>80846</v>
+        <v>82067</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5654552358317489</v>
+        <v>0.5654552358317488</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4940133758444653</v>
+        <v>0.4956587624007673</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6347881995880517</v>
+        <v>0.6443737863970332</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -11896,19 +11896,19 @@
         <v>10526</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>7158</v>
+        <v>7532</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13694</v>
+        <v>13735</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.5679009222856654</v>
+        <v>0.5679009222856652</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.386170148374582</v>
+        <v>0.406350023707968</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7388222639622486</v>
+        <v>0.7410472189809348</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>123</v>
@@ -11917,19 +11917,19 @@
         <v>82542</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>72372</v>
+        <v>73087</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>91836</v>
+        <v>92120</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5657659439234395</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.4960589172309467</v>
+        <v>0.5009614137900821</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6294679696641726</v>
+        <v>0.6314148295949935</v>
       </c>
     </row>
     <row r="35">
@@ -11946,19 +11946,19 @@
         <v>39117</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30686</v>
+        <v>30733</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>48043</v>
+        <v>47308</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3071369216448652</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2409425152375071</v>
+        <v>0.2413071183243158</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3772253177389289</v>
+        <v>0.3714526771356761</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>10</v>
@@ -11967,19 +11967,19 @@
         <v>5446</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2776</v>
+        <v>3018</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8851</v>
+        <v>8775</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2938022375593476</v>
+        <v>0.2938022375593475</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1497648595135112</v>
+        <v>0.162825838113444</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4775264507481046</v>
+        <v>0.4734548343511813</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>66</v>
@@ -11988,19 +11988,19 @@
         <v>44562</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36014</v>
+        <v>35865</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>53864</v>
+        <v>54265</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3054428392988346</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2468500842425242</v>
+        <v>0.2458291012385164</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3691976805674582</v>
+        <v>0.3719466834256121</v>
       </c>
     </row>
     <row r="36">
@@ -12017,19 +12017,19 @@
         <v>11685</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6841</v>
+        <v>6879</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18207</v>
+        <v>17938</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0917448227167481</v>
+        <v>0.09174482271674811</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.05371342235573973</v>
+        <v>0.05401247115910391</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1429575857826074</v>
+        <v>0.1408426463940913</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>4</v>
@@ -12038,19 +12038,19 @@
         <v>2563</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5671</v>
+        <v>5505</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.1382968401549873</v>
+        <v>0.1382968401549872</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03547675902478711</v>
+        <v>0.03471484833820021</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3059546920091623</v>
+        <v>0.2969790337136383</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>21</v>
@@ -12059,19 +12059,19 @@
         <v>14248</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>9235</v>
+        <v>8948</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>21057</v>
+        <v>20990</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.09765894489680661</v>
+        <v>0.09765894489680663</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06329626419188294</v>
+        <v>0.06133235797803293</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1443328769131949</v>
+        <v>0.1438685394565159</v>
       </c>
     </row>
     <row r="37">
@@ -12088,19 +12088,19 @@
         <v>4542</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1750</v>
+        <v>1635</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>9960</v>
+        <v>9341</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03566301980663771</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01373880873370185</v>
+        <v>0.012838139965909</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.07820554594393143</v>
+        <v>0.07334695758095344</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -12122,19 +12122,19 @@
         <v>4542</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1964</v>
+        <v>1663</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9805</v>
+        <v>9271</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.03113227188091945</v>
+        <v>0.03113227188091946</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01346091565443263</v>
+        <v>0.01139692023603987</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0672061098042759</v>
+        <v>0.06354445757809393</v>
       </c>
     </row>
     <row r="38">
@@ -12226,19 +12226,19 @@
         <v>188034</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>167770</v>
+        <v>169901</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>209664</v>
+        <v>210728</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.287912832569321</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2568864270829407</v>
+        <v>0.2601480302809109</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3210335307784276</v>
+        <v>0.3226616858546793</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>118</v>
@@ -12247,19 +12247,19 @@
         <v>73590</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>62777</v>
+        <v>62111</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>85762</v>
+        <v>85735</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.204468606275693</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1744267119035183</v>
+        <v>0.1725751658519932</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2382885242578674</v>
+        <v>0.2382130808182446</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>365</v>
@@ -12268,19 +12268,19 @@
         <v>261623</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>236618</v>
+        <v>237166</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>288458</v>
+        <v>286466</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2582660441842101</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2335816751640253</v>
+        <v>0.2341226354119335</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2847561435105281</v>
+        <v>0.2827903666221738</v>
       </c>
     </row>
     <row r="40">
@@ -12297,19 +12297,19 @@
         <v>209858</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>186003</v>
+        <v>186043</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>232401</v>
+        <v>232122</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3213297628757133</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2848030407936449</v>
+        <v>0.2848645355729745</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3558466046986683</v>
+        <v>0.3554201399357269</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>149</v>
@@ -12318,19 +12318,19 @@
         <v>98102</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>84699</v>
+        <v>84351</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>111457</v>
+        <v>112550</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2725766442972506</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2353369664581101</v>
+        <v>0.2343702547492851</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.309683639714041</v>
+        <v>0.3127207312962301</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>392</v>
@@ -12339,19 +12339,19 @@
         <v>307960</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>281070</v>
+        <v>284029</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>336023</v>
+        <v>336116</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3040083320972212</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2774632199844577</v>
+        <v>0.2803841954086169</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.331711336306031</v>
+        <v>0.331802965183181</v>
       </c>
     </row>
     <row r="41">
@@ -12368,19 +12368,19 @@
         <v>153788</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>132891</v>
+        <v>132677</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>174965</v>
+        <v>175238</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2354764139190729</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2034796202437172</v>
+        <v>0.2031528463571733</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2679027771926336</v>
+        <v>0.2683204344404055</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>128</v>
@@ -12389,19 +12389,19 @@
         <v>91443</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>77088</v>
+        <v>78426</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>106631</v>
+        <v>107529</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2540735210848665</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2141889518196758</v>
+        <v>0.2179068426332005</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.296273661778937</v>
+        <v>0.2987689293839219</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>291</v>
@@ -12410,19 +12410,19 @@
         <v>245231</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>219195</v>
+        <v>220878</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>268315</v>
+        <v>272513</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2420837554357815</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.216382560745723</v>
+        <v>0.2180433608112349</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2648720612946304</v>
+        <v>0.2690157560437102</v>
       </c>
     </row>
     <row r="42">
@@ -12439,19 +12439,19 @@
         <v>101413</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>83319</v>
+        <v>82660</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>122456</v>
+        <v>121819</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1552809906358928</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1275767917852418</v>
+        <v>0.1265673933661295</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1875025410583235</v>
+        <v>0.1865264721875296</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>122</v>
@@ -12460,19 +12460,19 @@
         <v>96772</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>81768</v>
+        <v>82151</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>112371</v>
+        <v>114159</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2688812283421897</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2271923559926061</v>
+        <v>0.2282558521993859</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3122210453938706</v>
+        <v>0.3171903113974662</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>221</v>
@@ -12481,19 +12481,19 @@
         <v>198185</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>173290</v>
+        <v>175719</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>226950</v>
+        <v>227045</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1956418682827873</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1710660767008779</v>
+        <v>0.1734642842021262</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2240380353180568</v>
+        <v>0.2241318849962466</v>
       </c>
     </row>
     <row r="43">
